--- a/DataPool/Folha/Cadastros Gerais/Tabelas/IRRF/IRRF.xlsx
+++ b/DataPool/Folha/Cadastros Gerais/Tabelas/IRRF/IRRF.xlsx
@@ -14,12 +14,59 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="14">
+  <si>
+    <t>DATA</t>
+  </si>
+  <si>
+    <t>IDMOEDA</t>
+  </si>
+  <si>
+    <t>EHPLR</t>
+  </si>
+  <si>
+    <t>DESCIRRF</t>
+  </si>
+  <si>
+    <t>DAFAIXA</t>
+  </si>
+  <si>
+    <t>VALORINICIAL</t>
+  </si>
+  <si>
+    <t>VALORFINAL</t>
+  </si>
+  <si>
+    <t>DEDUCAO</t>
+  </si>
+  <si>
+    <t>27/06/2022</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="179" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="20">
@@ -39,60 +86,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -106,6 +100,52 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -130,16 +170,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -147,29 +216,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -184,25 +231,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -214,157 +405,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -378,17 +425,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -404,15 +445,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -450,17 +482,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -475,153 +496,179 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -951,22 +998,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelRow="1" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="11.1428571428571" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.2857142857143" style="1" customWidth="1"/>
-    <col min="3" max="3" width="6.57142857142857" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14.2857142857143" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.1428571428571" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.2857142857143" style="1" customWidth="1"/>
-    <col min="8" max="8" width="17.2857142857143" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.14285714285714" style="1" customWidth="1"/>
+    <col min="3" max="3" width="6.28571428571429" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.85714285714286" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.14285714285714" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.4285714285714" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.14285714285714" style="1" customWidth="1"/>
     <col min="9" max="9" width="15.7142857142857" style="1" customWidth="1"/>
     <col min="10" max="10" width="14.1428571428571" style="1" customWidth="1"/>
     <col min="11" max="11" width="6.28571428571429" style="1" customWidth="1"/>
@@ -979,7 +1026,54 @@
     <col min="22" max="22" width="8.71428571428571" style="1" customWidth="1"/>
     <col min="23" max="16384" width="9.14285714285714" style="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -988,22 +1082,22 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B2:E2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelRow="1" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelRow="1" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="11.1428571428571" style="1" customWidth="1"/>
+    <col min="1" max="1" width="5.57142857142857" style="1" customWidth="1"/>
     <col min="2" max="2" width="9.14285714285714" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.85714285714286" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14.2857142857143" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.1428571428571" style="1" customWidth="1"/>
-    <col min="6" max="6" width="2.85714285714286" style="1" customWidth="1"/>
-    <col min="7" max="7" width="6.28571428571429" style="1" customWidth="1"/>
-    <col min="8" max="8" width="17.2857142857143" style="1" customWidth="1"/>
+    <col min="3" max="3" width="6.28571428571429" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.85714285714286" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.14285714285714" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.4285714285714" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.14285714285714" style="1" customWidth="1"/>
     <col min="9" max="9" width="15.7142857142857" style="1" customWidth="1"/>
     <col min="10" max="10" width="14.1428571428571" style="1" customWidth="1"/>
     <col min="11" max="11" width="5.85714285714286" style="1" customWidth="1"/>
@@ -1011,7 +1105,36 @@
     <col min="13" max="16384" width="9.14285714285714" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5">
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="B2"/>
       <c r="C2"/>
       <c r="D2"/>
